--- a/Minjun/LEARN_03 Naver 증권 정보 수집/SamSung.xlsx
+++ b/Minjun/LEARN_03 Naver 증권 정보 수집/SamSung.xlsx
@@ -82,7 +82,7 @@
     <x:t>2,368,070</x:t>
   </x:si>
   <x:si>
-    <x:t>2,777,179</x:t>
+    <x:t>2,777,878</x:t>
   </x:si>
   <x:si>
     <x:t>669,642</x:t>
@@ -100,7 +100,7 @@
     <x:t>739,792</x:t>
   </x:si>
   <x:si>
-    <x:t>748,294</x:t>
+    <x:t>749,901</x:t>
   </x:si>
   <x:si>
     <x:t>영업이익</x:t>
@@ -115,7 +115,7 @@
     <x:t>359,939</x:t>
   </x:si>
   <x:si>
-    <x:t>528,128</x:t>
+    <x:t>528,303</x:t>
   </x:si>
   <x:si>
     <x:t>123,532</x:t>
@@ -133,7 +133,7 @@
     <x:t>158,175</x:t>
   </x:si>
   <x:si>
-    <x:t>150,484</x:t>
+    <x:t>150,658</x:t>
   </x:si>
   <x:si>
     <x:t>당기순이익</x:t>
@@ -148,7 +148,7 @@
     <x:t>264,078</x:t>
   </x:si>
   <x:si>
-    <x:t>403,035</x:t>
+    <x:t>403,157</x:t>
   </x:si>
   <x:si>
     <x:t>93,607</x:t>
@@ -199,7 +199,7 @@
     <x:t>21.38</x:t>
   </x:si>
   <x:si>
-    <x:t>20.11</x:t>
+    <x:t>20.09</x:t>
   </x:si>
   <x:si>
     <x:t>순이익률</x:t>
@@ -232,7 +232,7 @@
     <x:t>16.62</x:t>
   </x:si>
   <x:si>
-    <x:t>15.15</x:t>
+    <x:t>15.12</x:t>
   </x:si>
   <x:si>
     <x:t>ROE(지배주주)</x:t>
@@ -247,7 +247,7 @@
     <x:t>9.98</x:t>
   </x:si>
   <x:si>
-    <x:t>14.15</x:t>
+    <x:t>14.16</x:t>
   </x:si>
   <x:si>
     <x:t>9.51</x:t>
@@ -346,7 +346,7 @@
     <x:t>3,841</x:t>
   </x:si>
   <x:si>
-    <x:t>5,846</x:t>
+    <x:t>5,848</x:t>
   </x:si>
   <x:si>
     <x:t>1,364</x:t>
@@ -379,7 +379,7 @@
     <x:t>21.09</x:t>
   </x:si>
   <x:si>
-    <x:t>13.27</x:t>
+    <x:t>13.34</x:t>
   </x:si>
   <x:si>
     <x:t>15.89</x:t>
@@ -394,7 +394,7 @@
     <x:t>14.36</x:t>
   </x:si>
   <x:si>
-    <x:t>47.40</x:t>
+    <x:t>47.64</x:t>
   </x:si>
   <x:si>
     <x:t>BPS(원)</x:t>
@@ -409,7 +409,7 @@
     <x:t>39,406</x:t>
   </x:si>
   <x:si>
-    <x:t>43,217</x:t>
+    <x:t>43,203</x:t>
   </x:si>
   <x:si>
     <x:t>39,446</x:t>
@@ -436,7 +436,7 @@
     <x:t>2.06</x:t>
   </x:si>
   <x:si>
-    <x:t>1.80</x:t>
+    <x:t>1.81</x:t>
   </x:si>
   <x:si>
     <x:t>1.48</x:t>
@@ -460,7 +460,7 @@
     <x:t>2,994</x:t>
   </x:si>
   <x:si>
-    <x:t>1,667</x:t>
+    <x:t>1,681</x:t>
   </x:si>
   <x:si>
     <x:t>시가배당률(%)</x:t>
